--- a/output/tables/comp_tab.xlsx
+++ b/output/tables/comp_tab.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ΔCFI = 0.001; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = -0.001.</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = -0.002.</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = -0.001; ΔRMSEA = 0.004.</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = -0.002; ΔRMSEA = 0.004.</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ΔCFI = 0.025; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = -0.001.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ΔCFI = 0.025; ΔRMSEA = 0.</t>
+          <t>ΔCFI = -0.004; ΔRMSEA = 0.005.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ΔCFI = 0.023; ΔRMSEA = 0.</t>
+          <t>ΔCFI = -0.004; ΔRMSEA = 0.004.</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.003; ΔRMSEA = 0.</t>
+          <t>ΔCFI = -0.004; ΔRMSEA = 0.004.</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.002; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0.001; ΔRMSEA = -0.002.</t>
         </is>
       </c>
     </row>

--- a/output/tables/comp_tab.xlsx
+++ b/output/tables/comp_tab.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = -0.001.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = -0.002.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.001; ΔRMSEA = 0.004.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.002; ΔRMSEA = 0.004.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = -0.001.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.004; ΔRMSEA = 0.005.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.01.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.004; ΔRMSEA = 0.004.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ΔCFI = -0.004; ΔRMSEA = 0.004.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ΔCFI = 0.001; ΔRMSEA = -0.002.</t>
+          <t>㥌FI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>

--- a/output/tables/comp_tab.xlsx
+++ b/output/tables/comp_tab.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.01.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.01.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>㥌FI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
         </is>
       </c>
     </row>

--- a/output/tables/comp_tab.xlsx
+++ b/output/tables/comp_tab.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,84 +372,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a2 vs. a1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b2 vs. b1</t>
+          <t>a2 vs. a1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = 0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>c2 vs. c1</t>
+          <t>a2 vs. b2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0.039; ΔRMSEA = -0.03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d2 vs. d1</t>
+          <t>a2 vs. c2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0.039; ΔRMSEA = -0.03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a2 vs. b2</t>
+          <t>a2 vs. d2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.01.</t>
+          <t>ΔCFI = 0.037; ΔRMSEA = -0.03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a2 vs. c2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a2 vs. d2</t>
+          <t>b2 vs. b1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = 0; ΔRMSEA = -0.002</t>
         </is>
       </c>
     </row>
@@ -461,19 +461,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+          <t>ΔCFI = -0.002; ΔRMSEA = 0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c2 vs. c1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ΔCFI = 0; ΔRMSEA = -0.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>c2 vs. d2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ΔCFI = 0; ΔRMSEA = 0.</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ΔCFI = -0.002; ΔRMSEA = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>d2 vs. d1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ΔCFI = 0; ΔRMSEA = -0.003</t>
         </is>
       </c>
     </row>
